--- a/database/industries/siman/semazen/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/semazen/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\semazen\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\semazen\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881220C9-3251-419C-ABA0-024BD222D5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7A427E-1C5D-49FD-A1CE-1B1EC5F080FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,18 @@
     <t>مقدار فروش</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -50,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -642,16 +657,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I90"/>
+  <dimension ref="B1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -660,8 +675,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,8 +692,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -684,8 +709,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -694,8 +724,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,8 +741,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -718,8 +758,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -728,8 +773,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -750,8 +800,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -760,10 +825,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -772,104 +842,169 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>0</v>
+      <c r="E11" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F11" s="11">
         <v>0</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>268891</v>
+      </c>
+      <c r="F12" s="13">
+        <v>289497</v>
+      </c>
+      <c r="G12" s="13">
+        <v>320096</v>
+      </c>
+      <c r="H12" s="13">
+        <v>315433</v>
+      </c>
+      <c r="I12" s="13">
         <v>223187</v>
       </c>
-      <c r="F12" s="13">
+      <c r="J12" s="13">
         <v>228338</v>
       </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13">
         <v>218375</v>
       </c>
-      <c r="H12" s="13">
+      <c r="L12" s="13">
         <v>224591</v>
       </c>
-      <c r="I12" s="13">
+      <c r="M12" s="13">
         <v>243920</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N12" s="13">
+        <v>225074</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>285964</v>
+      </c>
+      <c r="F13" s="11">
+        <v>325268</v>
+      </c>
+      <c r="G13" s="11">
+        <v>287839</v>
+      </c>
+      <c r="H13" s="11">
+        <v>247378</v>
+      </c>
+      <c r="I13" s="11">
         <v>182041</v>
       </c>
-      <c r="F13" s="11">
+      <c r="J13" s="11">
         <v>235990</v>
       </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11">
         <v>232356</v>
       </c>
-      <c r="H13" s="11">
+      <c r="L13" s="11">
         <v>244703</v>
       </c>
-      <c r="I13" s="11">
+      <c r="M13" s="11">
         <v>249176</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N13" s="11">
+        <v>293430</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
+        <v>554855</v>
+      </c>
+      <c r="F14" s="15">
+        <v>614765</v>
+      </c>
+      <c r="G14" s="15">
+        <v>607935</v>
+      </c>
+      <c r="H14" s="15">
+        <v>562811</v>
+      </c>
+      <c r="I14" s="15">
         <v>405228</v>
       </c>
-      <c r="F14" s="15">
+      <c r="J14" s="15">
         <v>464328</v>
       </c>
-      <c r="G14" s="15">
+      <c r="K14" s="15">
         <v>450731</v>
       </c>
-      <c r="H14" s="15">
+      <c r="L14" s="15">
         <v>469294</v>
       </c>
-      <c r="I14" s="15">
+      <c r="M14" s="15">
         <v>493096</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N14" s="15">
+        <v>518504</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -878,80 +1013,130 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>6799</v>
+      </c>
+      <c r="I16" s="11">
         <v>2192</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
         <v>4000</v>
       </c>
-      <c r="I16" s="11">
+      <c r="M16" s="11">
         <v>5500</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N16" s="11">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
+        <v>12851</v>
+      </c>
+      <c r="F17" s="13">
+        <v>8300</v>
+      </c>
+      <c r="G17" s="13">
+        <v>22442</v>
+      </c>
+      <c r="H17" s="13">
+        <v>75564</v>
+      </c>
+      <c r="I17" s="13">
         <v>12268</v>
       </c>
-      <c r="F17" s="13">
+      <c r="J17" s="13">
         <v>29099</v>
       </c>
-      <c r="G17" s="13">
+      <c r="K17" s="13">
         <v>18990</v>
       </c>
-      <c r="H17" s="13">
+      <c r="L17" s="13">
         <v>31230</v>
       </c>
-      <c r="I17" s="13">
+      <c r="M17" s="13">
         <v>53548</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N17" s="13">
+        <v>53021</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17">
+        <v>12851</v>
+      </c>
+      <c r="F18" s="17">
+        <v>8300</v>
+      </c>
+      <c r="G18" s="17">
+        <v>22442</v>
+      </c>
+      <c r="H18" s="17">
+        <v>82363</v>
+      </c>
+      <c r="I18" s="17">
         <v>14460</v>
       </c>
-      <c r="F18" s="17">
+      <c r="J18" s="17">
         <v>29099</v>
       </c>
-      <c r="G18" s="17">
+      <c r="K18" s="17">
         <v>18990</v>
       </c>
-      <c r="H18" s="17">
+      <c r="L18" s="17">
         <v>35230</v>
       </c>
-      <c r="I18" s="17">
+      <c r="M18" s="17">
         <v>59048</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N18" s="17">
+        <v>56921</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -960,10 +1145,15 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -982,32 +1172,62 @@
       <c r="I20" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0</v>
+      </c>
+      <c r="M20" s="17">
+        <v>0</v>
+      </c>
+      <c r="N20" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>13</v>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -1026,30 +1246,60 @@
       <c r="I22" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>0</v>
+      </c>
+      <c r="N22" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
+        <v>567706</v>
+      </c>
+      <c r="F23" s="15">
+        <v>623065</v>
+      </c>
+      <c r="G23" s="15">
+        <v>630377</v>
+      </c>
+      <c r="H23" s="15">
+        <v>645174</v>
+      </c>
+      <c r="I23" s="15">
         <v>419688</v>
       </c>
-      <c r="F23" s="15">
+      <c r="J23" s="15">
         <v>493427</v>
       </c>
-      <c r="G23" s="15">
+      <c r="K23" s="15">
         <v>469721</v>
       </c>
-      <c r="H23" s="15">
+      <c r="L23" s="15">
         <v>504524</v>
       </c>
-      <c r="I23" s="15">
+      <c r="M23" s="15">
         <v>552144</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N23" s="15">
+        <v>575425</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1058,8 +1308,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1068,8 +1323,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1078,10 +1338,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1100,8 +1365,23 @@
       <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1110,10 +1390,15 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1122,104 +1407,169 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11">
-        <v>0</v>
+      <c r="E30" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F30" s="11">
         <v>0</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
+        <v>570009</v>
+      </c>
+      <c r="F31" s="13">
+        <v>687352</v>
+      </c>
+      <c r="G31" s="13">
+        <v>708097</v>
+      </c>
+      <c r="H31" s="13">
+        <v>890038</v>
+      </c>
+      <c r="I31" s="13">
         <v>1104535</v>
       </c>
-      <c r="F31" s="13">
+      <c r="J31" s="13">
         <v>998285</v>
       </c>
-      <c r="G31" s="13">
+      <c r="K31" s="13">
         <v>1105845</v>
       </c>
-      <c r="H31" s="13">
+      <c r="L31" s="13">
         <v>1166556</v>
       </c>
-      <c r="I31" s="13">
+      <c r="M31" s="13">
         <v>1794839</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N31" s="13">
+        <v>1543689</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>713383</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1004380</v>
+      </c>
+      <c r="G32" s="11">
+        <v>893535</v>
+      </c>
+      <c r="H32" s="11">
+        <v>984374</v>
+      </c>
+      <c r="I32" s="11">
         <v>1046060</v>
       </c>
-      <c r="F32" s="11">
+      <c r="J32" s="11">
         <v>1341714</v>
       </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11">
         <v>1378252</v>
       </c>
-      <c r="H32" s="11">
+      <c r="L32" s="11">
         <v>1550407</v>
       </c>
-      <c r="I32" s="11">
+      <c r="M32" s="11">
         <v>1905806</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N32" s="11">
+        <v>2104938</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
+        <v>1283392</v>
+      </c>
+      <c r="F33" s="15">
+        <v>1691732</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1601632</v>
+      </c>
+      <c r="H33" s="15">
+        <v>1874412</v>
+      </c>
+      <c r="I33" s="15">
         <v>2150595</v>
       </c>
-      <c r="F33" s="15">
+      <c r="J33" s="15">
         <v>2339999</v>
       </c>
-      <c r="G33" s="15">
+      <c r="K33" s="15">
         <v>2484097</v>
       </c>
-      <c r="H33" s="15">
+      <c r="L33" s="15">
         <v>2716963</v>
       </c>
-      <c r="I33" s="15">
+      <c r="M33" s="15">
         <v>3700645</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N33" s="15">
+        <v>3648627</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1228,80 +1578,130 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>28237</v>
+      </c>
+      <c r="I35" s="11">
         <v>11155</v>
       </c>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
         <v>32576</v>
       </c>
-      <c r="I35" s="11">
+      <c r="M35" s="11">
         <v>42722</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N35" s="11">
+        <v>29978</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>50969</v>
+      </c>
+      <c r="F36" s="13">
+        <v>51966</v>
+      </c>
+      <c r="G36" s="13">
+        <v>125403</v>
+      </c>
+      <c r="H36" s="13">
+        <v>438125</v>
+      </c>
+      <c r="I36" s="13">
         <v>99611</v>
       </c>
-      <c r="F36" s="13">
+      <c r="J36" s="13">
         <v>238920</v>
       </c>
-      <c r="G36" s="13">
+      <c r="K36" s="13">
         <v>148598</v>
       </c>
-      <c r="H36" s="13">
+      <c r="L36" s="13">
         <v>264296</v>
       </c>
-      <c r="I36" s="13">
+      <c r="M36" s="13">
         <v>507140</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N36" s="13">
+        <v>509973</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17">
+        <v>50969</v>
+      </c>
+      <c r="F37" s="17">
+        <v>51966</v>
+      </c>
+      <c r="G37" s="17">
+        <v>125403</v>
+      </c>
+      <c r="H37" s="17">
+        <v>466362</v>
+      </c>
+      <c r="I37" s="17">
         <v>110766</v>
       </c>
-      <c r="F37" s="17">
+      <c r="J37" s="17">
         <v>238920</v>
       </c>
-      <c r="G37" s="17">
+      <c r="K37" s="17">
         <v>148598</v>
       </c>
-      <c r="H37" s="17">
+      <c r="L37" s="17">
         <v>296872</v>
       </c>
-      <c r="I37" s="17">
+      <c r="M37" s="17">
         <v>549862</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N37" s="17">
+        <v>539951</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -1310,10 +1710,15 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -1332,78 +1737,138 @@
       <c r="I39" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="17">
+        <v>0</v>
+      </c>
+      <c r="K39" s="17">
+        <v>0</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" s="17">
+        <v>0</v>
+      </c>
+      <c r="N39" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>13</v>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15">
+        <v>0</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17">
-        <v>0</v>
+        <v>-4676</v>
       </c>
       <c r="F41" s="17">
-        <v>0</v>
+        <v>-87158</v>
       </c>
       <c r="G41" s="17">
         <v>0</v>
       </c>
       <c r="H41" s="17">
-        <v>0</v>
+        <v>-3552</v>
       </c>
       <c r="I41" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="17">
+        <v>0</v>
+      </c>
+      <c r="K41" s="17">
+        <v>0</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="17">
+        <v>0</v>
+      </c>
+      <c r="N41" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
+        <v>1329685</v>
+      </c>
+      <c r="F42" s="15">
+        <v>1656540</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1727035</v>
+      </c>
+      <c r="H42" s="15">
+        <v>2337222</v>
+      </c>
+      <c r="I42" s="15">
         <v>2261361</v>
       </c>
-      <c r="F42" s="15">
+      <c r="J42" s="15">
         <v>2578919</v>
       </c>
-      <c r="G42" s="15">
+      <c r="K42" s="15">
         <v>2632695</v>
       </c>
-      <c r="H42" s="15">
+      <c r="L42" s="15">
         <v>3013835</v>
       </c>
-      <c r="I42" s="15">
+      <c r="M42" s="15">
         <v>4250507</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N42" s="15">
+        <v>4188578</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1412,8 +1877,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1422,8 +1892,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1432,10 +1907,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1454,8 +1934,23 @@
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1464,10 +1959,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1476,82 +1976,132 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
+        <v>2119852</v>
+      </c>
+      <c r="F50" s="13">
+        <v>2374297</v>
+      </c>
+      <c r="G50" s="13">
+        <v>2212139</v>
+      </c>
+      <c r="H50" s="13">
+        <v>2821639</v>
+      </c>
+      <c r="I50" s="13">
         <v>4948922</v>
       </c>
-      <c r="F50" s="13">
+      <c r="J50" s="13">
         <v>4371962</v>
       </c>
-      <c r="G50" s="13">
+      <c r="K50" s="13">
         <v>5063973</v>
       </c>
-      <c r="H50" s="13">
+      <c r="L50" s="13">
         <v>5129967</v>
       </c>
-      <c r="I50" s="13">
+      <c r="M50" s="13">
         <v>5921274</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N50" s="13">
+        <v>6858584</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
+        <v>2494660</v>
+      </c>
+      <c r="F51" s="11">
+        <v>3087854</v>
+      </c>
+      <c r="G51" s="11">
+        <v>3104287</v>
+      </c>
+      <c r="H51" s="11">
+        <v>3979230</v>
+      </c>
+      <c r="I51" s="11">
         <v>5746288</v>
       </c>
-      <c r="F51" s="11">
+      <c r="J51" s="11">
         <v>5685470</v>
       </c>
-      <c r="G51" s="11">
+      <c r="K51" s="11">
         <v>5931639</v>
       </c>
-      <c r="H51" s="11">
+      <c r="L51" s="11">
         <v>6138987</v>
       </c>
-      <c r="I51" s="11">
+      <c r="M51" s="11">
         <v>6656888</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N51" s="11">
+        <v>7173561</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -1560,56 +2110,91 @@
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="E53" s="11">
+      <c r="E53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="11">
+        <v>4153111</v>
+      </c>
+      <c r="I53" s="11">
         <v>5088960</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="11">
+      <c r="J53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="11">
         <v>8144000</v>
       </c>
-      <c r="I53" s="11">
+      <c r="M53" s="11">
         <v>7926105</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N53" s="11">
+        <v>7686667</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
+        <v>3966150</v>
+      </c>
+      <c r="F54" s="13">
+        <v>6260964</v>
+      </c>
+      <c r="G54" s="13">
+        <v>5587871</v>
+      </c>
+      <c r="H54" s="13">
+        <v>5798065</v>
+      </c>
+      <c r="I54" s="13">
         <v>8119579</v>
       </c>
-      <c r="F54" s="13">
+      <c r="J54" s="13">
         <v>8210591</v>
       </c>
-      <c r="G54" s="13">
+      <c r="K54" s="13">
         <v>7825066</v>
       </c>
-      <c r="H54" s="13">
+      <c r="L54" s="13">
         <v>8221705</v>
       </c>
-      <c r="I54" s="13">
+      <c r="M54" s="13">
         <v>8866259</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N54" s="13">
+        <v>9618321</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1618,8 +2203,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1628,8 +2218,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1638,10 +2233,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1660,8 +2260,23 @@
       <c r="I58" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1670,10 +2285,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -1682,104 +2302,169 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11">
-        <v>0</v>
+      <c r="E61" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F61" s="11">
         <v>0</v>
       </c>
-      <c r="G61" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>0</v>
+      </c>
+      <c r="J61" s="11">
+        <v>0</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>-250111</v>
+      </c>
+      <c r="F62" s="13">
+        <v>-289647</v>
+      </c>
+      <c r="G62" s="13">
+        <v>-395997</v>
+      </c>
+      <c r="H62" s="13">
+        <v>-362760</v>
+      </c>
+      <c r="I62" s="13">
         <v>-449150</v>
       </c>
-      <c r="F62" s="13">
+      <c r="J62" s="13">
         <v>-469132</v>
       </c>
-      <c r="G62" s="13">
+      <c r="K62" s="13">
         <v>-577640</v>
       </c>
-      <c r="H62" s="13">
+      <c r="L62" s="13">
         <v>-385762</v>
       </c>
-      <c r="I62" s="13">
+      <c r="M62" s="13">
         <v>-880935</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N62" s="13">
+        <v>-498214</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
+        <v>-366163</v>
+      </c>
+      <c r="F63" s="11">
+        <v>-478085</v>
+      </c>
+      <c r="G63" s="11">
+        <v>-499701</v>
+      </c>
+      <c r="H63" s="11">
+        <v>-492848</v>
+      </c>
+      <c r="I63" s="11">
         <v>-515631</v>
       </c>
-      <c r="F63" s="11">
+      <c r="J63" s="11">
         <v>-597873</v>
       </c>
-      <c r="G63" s="11">
+      <c r="K63" s="11">
         <v>-719932</v>
       </c>
-      <c r="H63" s="11">
+      <c r="L63" s="11">
         <v>-681678</v>
       </c>
-      <c r="I63" s="11">
+      <c r="M63" s="11">
         <v>-1055606</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N63" s="11">
+        <v>-937630</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
+        <v>-616274</v>
+      </c>
+      <c r="F64" s="15">
+        <v>-767732</v>
+      </c>
+      <c r="G64" s="15">
+        <v>-895698</v>
+      </c>
+      <c r="H64" s="15">
+        <v>-855608</v>
+      </c>
+      <c r="I64" s="15">
         <v>-964781</v>
       </c>
-      <c r="F64" s="15">
+      <c r="J64" s="15">
         <v>-1067005</v>
       </c>
-      <c r="G64" s="15">
+      <c r="K64" s="15">
         <v>-1297572</v>
       </c>
-      <c r="H64" s="15">
+      <c r="L64" s="15">
         <v>-1067440</v>
       </c>
-      <c r="I64" s="15">
+      <c r="M64" s="15">
         <v>-1936541</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N64" s="15">
+        <v>-1435844</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -1788,80 +2473,130 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11">
+        <v>-7597</v>
+      </c>
+      <c r="I66" s="11">
         <v>-4042</v>
       </c>
-      <c r="F66" s="11">
+      <c r="J66" s="11">
         <v>-555</v>
       </c>
-      <c r="G66" s="11">
-        <v>0</v>
-      </c>
-      <c r="H66" s="11">
+      <c r="K66" s="11">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11">
         <v>-7988</v>
       </c>
-      <c r="I66" s="11">
+      <c r="M66" s="11">
         <v>-11141</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N66" s="11">
+        <v>-11611</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
+        <v>-29925</v>
+      </c>
+      <c r="F67" s="13">
+        <v>-14438</v>
+      </c>
+      <c r="G67" s="13">
+        <v>-70131</v>
+      </c>
+      <c r="H67" s="13">
+        <v>-204982</v>
+      </c>
+      <c r="I67" s="13">
         <v>-81020</v>
       </c>
-      <c r="F67" s="13">
+      <c r="J67" s="13">
         <v>-82729</v>
       </c>
-      <c r="G67" s="13">
+      <c r="K67" s="13">
         <v>-77620</v>
       </c>
-      <c r="H67" s="13">
+      <c r="L67" s="13">
         <v>-120683</v>
       </c>
-      <c r="I67" s="13">
+      <c r="M67" s="13">
         <v>-243567</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N67" s="13">
+        <v>-202045</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17">
+        <v>-29925</v>
+      </c>
+      <c r="F68" s="17">
+        <v>-14438</v>
+      </c>
+      <c r="G68" s="17">
+        <v>-70131</v>
+      </c>
+      <c r="H68" s="17">
+        <v>-212579</v>
+      </c>
+      <c r="I68" s="17">
         <v>-85062</v>
       </c>
-      <c r="F68" s="17">
+      <c r="J68" s="17">
         <v>-83284</v>
       </c>
-      <c r="G68" s="17">
+      <c r="K68" s="17">
         <v>-77620</v>
       </c>
-      <c r="H68" s="17">
+      <c r="L68" s="17">
         <v>-128671</v>
       </c>
-      <c r="I68" s="17">
+      <c r="M68" s="17">
         <v>-254708</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N68" s="17">
+        <v>-213656</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
@@ -1870,10 +2605,15 @@
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -1892,37 +2632,67 @@
       <c r="I70" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="17">
+        <v>0</v>
+      </c>
+      <c r="K70" s="17">
+        <v>0</v>
+      </c>
+      <c r="L70" s="17">
+        <v>0</v>
+      </c>
+      <c r="M70" s="17">
+        <v>0</v>
+      </c>
+      <c r="N70" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D71" s="15"/>
-      <c r="E71" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>13</v>
+      <c r="E71" s="15">
+        <v>0</v>
+      </c>
+      <c r="F71" s="15">
+        <v>0</v>
+      </c>
+      <c r="G71" s="15">
+        <v>0</v>
+      </c>
+      <c r="H71" s="15">
+        <v>0</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17">
@@ -1940,30 +2710,60 @@
       <c r="I72" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="17">
+        <v>0</v>
+      </c>
+      <c r="K72" s="17">
+        <v>0</v>
+      </c>
+      <c r="L72" s="17">
+        <v>0</v>
+      </c>
+      <c r="M72" s="17">
+        <v>0</v>
+      </c>
+      <c r="N72" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
+        <v>-646199</v>
+      </c>
+      <c r="F73" s="15">
+        <v>-782170</v>
+      </c>
+      <c r="G73" s="15">
+        <v>-965829</v>
+      </c>
+      <c r="H73" s="15">
+        <v>-1068187</v>
+      </c>
+      <c r="I73" s="15">
         <v>-1049843</v>
       </c>
-      <c r="F73" s="15">
+      <c r="J73" s="15">
         <v>-1150289</v>
       </c>
-      <c r="G73" s="15">
+      <c r="K73" s="15">
         <v>-1375192</v>
       </c>
-      <c r="H73" s="15">
+      <c r="L73" s="15">
         <v>-1196111</v>
       </c>
-      <c r="I73" s="15">
+      <c r="M73" s="15">
         <v>-2191249</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N73" s="15">
+        <v>-1649500</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1972,8 +2772,13 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1982,8 +2787,13 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1992,10 +2802,15 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2014,8 +2829,23 @@
       <c r="I77" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2024,10 +2854,15 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2036,104 +2871,169 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11">
-        <v>0</v>
+      <c r="E80" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F80" s="11">
         <v>0</v>
       </c>
-      <c r="G80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G80" s="11">
+        <v>0</v>
+      </c>
+      <c r="H80" s="11">
+        <v>0</v>
+      </c>
+      <c r="I80" s="11">
+        <v>0</v>
+      </c>
+      <c r="J80" s="11">
+        <v>0</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
+        <v>319898</v>
+      </c>
+      <c r="F81" s="13">
+        <v>352632</v>
+      </c>
+      <c r="G81" s="13">
+        <v>312100</v>
+      </c>
+      <c r="H81" s="13">
+        <v>527278</v>
+      </c>
+      <c r="I81" s="13">
         <v>653343</v>
       </c>
-      <c r="F81" s="13">
+      <c r="J81" s="13">
         <v>529153</v>
       </c>
-      <c r="G81" s="13">
+      <c r="K81" s="13">
         <v>528205</v>
       </c>
-      <c r="H81" s="13">
+      <c r="L81" s="13">
         <v>780794</v>
       </c>
-      <c r="I81" s="13">
+      <c r="M81" s="13">
         <v>913904</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N81" s="13">
+        <v>1045475</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
+        <v>347220</v>
+      </c>
+      <c r="F82" s="11">
+        <v>490212</v>
+      </c>
+      <c r="G82" s="11">
+        <v>393834</v>
+      </c>
+      <c r="H82" s="11">
+        <v>491526</v>
+      </c>
+      <c r="I82" s="11">
         <v>528919</v>
       </c>
-      <c r="F82" s="11">
+      <c r="J82" s="11">
         <v>743841</v>
       </c>
-      <c r="G82" s="11">
+      <c r="K82" s="11">
         <v>658320</v>
       </c>
-      <c r="H82" s="11">
+      <c r="L82" s="11">
         <v>868729</v>
       </c>
-      <c r="I82" s="11">
+      <c r="M82" s="11">
         <v>850200</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N82" s="11">
+        <v>1167308</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
+        <v>667118</v>
+      </c>
+      <c r="F83" s="15">
+        <v>842844</v>
+      </c>
+      <c r="G83" s="15">
+        <v>705934</v>
+      </c>
+      <c r="H83" s="15">
+        <v>1018804</v>
+      </c>
+      <c r="I83" s="15">
         <v>1182262</v>
       </c>
-      <c r="F83" s="15">
+      <c r="J83" s="15">
         <v>1272994</v>
       </c>
-      <c r="G83" s="15">
+      <c r="K83" s="15">
         <v>1186525</v>
       </c>
-      <c r="H83" s="15">
+      <c r="L83" s="15">
         <v>1649523</v>
       </c>
-      <c r="I83" s="15">
+      <c r="M83" s="15">
         <v>1764104</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N83" s="15">
+        <v>2212783</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -2142,80 +3042,130 @@
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
+        <v>0</v>
+      </c>
+      <c r="F85" s="11">
+        <v>0</v>
+      </c>
+      <c r="G85" s="11">
+        <v>0</v>
+      </c>
+      <c r="H85" s="11">
+        <v>20640</v>
+      </c>
+      <c r="I85" s="11">
         <v>7113</v>
       </c>
-      <c r="F85" s="11">
+      <c r="J85" s="11">
         <v>-555</v>
       </c>
-      <c r="G85" s="11">
-        <v>0</v>
-      </c>
-      <c r="H85" s="11">
+      <c r="K85" s="11">
+        <v>0</v>
+      </c>
+      <c r="L85" s="11">
         <v>24588</v>
       </c>
-      <c r="I85" s="11">
+      <c r="M85" s="11">
         <v>31581</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N85" s="11">
+        <v>18367</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
+        <v>21044</v>
+      </c>
+      <c r="F86" s="13">
+        <v>37528</v>
+      </c>
+      <c r="G86" s="13">
+        <v>55272</v>
+      </c>
+      <c r="H86" s="13">
+        <v>233143</v>
+      </c>
+      <c r="I86" s="13">
         <v>18591</v>
       </c>
-      <c r="F86" s="13">
+      <c r="J86" s="13">
         <v>156191</v>
       </c>
-      <c r="G86" s="13">
+      <c r="K86" s="13">
         <v>70978</v>
       </c>
-      <c r="H86" s="13">
+      <c r="L86" s="13">
         <v>143613</v>
       </c>
-      <c r="I86" s="13">
+      <c r="M86" s="13">
         <v>263573</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N86" s="13">
+        <v>307928</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17">
+        <v>21044</v>
+      </c>
+      <c r="F87" s="17">
+        <v>37528</v>
+      </c>
+      <c r="G87" s="17">
+        <v>55272</v>
+      </c>
+      <c r="H87" s="17">
+        <v>253783</v>
+      </c>
+      <c r="I87" s="17">
         <v>25704</v>
       </c>
-      <c r="F87" s="17">
+      <c r="J87" s="17">
         <v>155636</v>
       </c>
-      <c r="G87" s="17">
+      <c r="K87" s="17">
         <v>70978</v>
       </c>
-      <c r="H87" s="17">
+      <c r="L87" s="17">
         <v>168201</v>
       </c>
-      <c r="I87" s="17">
+      <c r="M87" s="17">
         <v>295154</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N87" s="17">
+        <v>326295</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
@@ -2224,10 +3174,15 @@
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -2246,27 +3201,57 @@
       <c r="I89" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="17">
+        <v>0</v>
+      </c>
+      <c r="K89" s="17">
+        <v>0</v>
+      </c>
+      <c r="L89" s="17">
+        <v>0</v>
+      </c>
+      <c r="M89" s="17">
+        <v>0</v>
+      </c>
+      <c r="N89" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
+        <v>688162</v>
+      </c>
+      <c r="F90" s="15">
+        <v>880372</v>
+      </c>
+      <c r="G90" s="15">
+        <v>761206</v>
+      </c>
+      <c r="H90" s="15">
+        <v>1272587</v>
+      </c>
+      <c r="I90" s="15">
         <v>1207966</v>
       </c>
-      <c r="F90" s="15">
+      <c r="J90" s="15">
         <v>1428630</v>
       </c>
-      <c r="G90" s="15">
+      <c r="K90" s="15">
         <v>1257503</v>
       </c>
-      <c r="H90" s="15">
+      <c r="L90" s="15">
         <v>1817724</v>
       </c>
-      <c r="I90" s="15">
+      <c r="M90" s="15">
         <v>2059258</v>
+      </c>
+      <c r="N90" s="15">
+        <v>2539078</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/siman/semazen/product/quarterly_seprated.xlsx
+++ b/database/industries/siman/semazen/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\semazen\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\semazen\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7A427E-1C5D-49FD-A1CE-1B1EC5F080FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA19425-225E-47DD-921F-7FE30E06F7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -661,12 +661,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -681,7 +681,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -715,7 +715,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -730,7 +730,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -779,7 +779,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -816,7 +816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -831,7 +831,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -856,8 +856,8 @@
         <v>17</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>18</v>
+      <c r="E11" s="11">
+        <v>0</v>
       </c>
       <c r="F11" s="11">
         <v>0</v>
@@ -871,8 +871,8 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-      <c r="J11" s="11">
-        <v>0</v>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>18</v>
@@ -887,7 +887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -896,37 +896,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>268891</v>
+        <v>289497</v>
       </c>
       <c r="F12" s="13">
-        <v>289497</v>
+        <v>320096</v>
       </c>
       <c r="G12" s="13">
-        <v>320096</v>
+        <v>315433</v>
       </c>
       <c r="H12" s="13">
-        <v>315433</v>
+        <v>223187</v>
       </c>
       <c r="I12" s="13">
-        <v>223187</v>
+        <v>228338</v>
       </c>
       <c r="J12" s="13">
-        <v>228338</v>
+        <v>218375</v>
       </c>
       <c r="K12" s="13">
-        <v>218375</v>
+        <v>224591</v>
       </c>
       <c r="L12" s="13">
-        <v>224591</v>
+        <v>243920</v>
       </c>
       <c r="M12" s="13">
-        <v>243920</v>
+        <v>225074</v>
       </c>
       <c r="N12" s="13">
-        <v>225074</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>210211</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -935,74 +935,74 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>285964</v>
+        <v>325268</v>
       </c>
       <c r="F13" s="11">
-        <v>325268</v>
+        <v>287839</v>
       </c>
       <c r="G13" s="11">
-        <v>287839</v>
+        <v>247378</v>
       </c>
       <c r="H13" s="11">
-        <v>247378</v>
+        <v>182041</v>
       </c>
       <c r="I13" s="11">
-        <v>182041</v>
+        <v>235990</v>
       </c>
       <c r="J13" s="11">
-        <v>235990</v>
+        <v>232356</v>
       </c>
       <c r="K13" s="11">
-        <v>232356</v>
+        <v>244703</v>
       </c>
       <c r="L13" s="11">
-        <v>244703</v>
+        <v>249176</v>
       </c>
       <c r="M13" s="11">
-        <v>249176</v>
+        <v>293430</v>
       </c>
       <c r="N13" s="11">
-        <v>293430</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>221998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>554855</v>
+        <v>614765</v>
       </c>
       <c r="F14" s="15">
-        <v>614765</v>
+        <v>607935</v>
       </c>
       <c r="G14" s="15">
-        <v>607935</v>
+        <v>562811</v>
       </c>
       <c r="H14" s="15">
-        <v>562811</v>
+        <v>405228</v>
       </c>
       <c r="I14" s="15">
-        <v>405228</v>
+        <v>464328</v>
       </c>
       <c r="J14" s="15">
-        <v>464328</v>
+        <v>450731</v>
       </c>
       <c r="K14" s="15">
-        <v>450731</v>
+        <v>469294</v>
       </c>
       <c r="L14" s="15">
-        <v>469294</v>
+        <v>493096</v>
       </c>
       <c r="M14" s="15">
-        <v>493096</v>
+        <v>518504</v>
       </c>
       <c r="N14" s="15">
-        <v>518504</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>432209</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1034,31 +1034,31 @@
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <v>0</v>
+        <v>6799</v>
       </c>
       <c r="H16" s="11">
-        <v>6799</v>
+        <v>2192</v>
       </c>
       <c r="I16" s="11">
-        <v>2192</v>
+        <v>0</v>
       </c>
       <c r="J16" s="11">
         <v>0</v>
       </c>
       <c r="K16" s="11">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="L16" s="11">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="M16" s="11">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="N16" s="11">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
@@ -1067,74 +1067,74 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>12851</v>
+        <v>8300</v>
       </c>
       <c r="F17" s="13">
-        <v>8300</v>
+        <v>22442</v>
       </c>
       <c r="G17" s="13">
-        <v>22442</v>
+        <v>75564</v>
       </c>
       <c r="H17" s="13">
-        <v>75564</v>
+        <v>12268</v>
       </c>
       <c r="I17" s="13">
-        <v>12268</v>
+        <v>29099</v>
       </c>
       <c r="J17" s="13">
-        <v>29099</v>
+        <v>18990</v>
       </c>
       <c r="K17" s="13">
-        <v>18990</v>
+        <v>31230</v>
       </c>
       <c r="L17" s="13">
-        <v>31230</v>
+        <v>53548</v>
       </c>
       <c r="M17" s="13">
-        <v>53548</v>
+        <v>53021</v>
       </c>
       <c r="N17" s="13">
-        <v>53021</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9803</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17">
-        <v>12851</v>
+        <v>8300</v>
       </c>
       <c r="F18" s="17">
-        <v>8300</v>
+        <v>22442</v>
       </c>
       <c r="G18" s="17">
-        <v>22442</v>
+        <v>82363</v>
       </c>
       <c r="H18" s="17">
-        <v>82363</v>
+        <v>14460</v>
       </c>
       <c r="I18" s="17">
-        <v>14460</v>
+        <v>29099</v>
       </c>
       <c r="J18" s="17">
-        <v>29099</v>
+        <v>18990</v>
       </c>
       <c r="K18" s="17">
-        <v>18990</v>
+        <v>35230</v>
       </c>
       <c r="L18" s="17">
-        <v>35230</v>
+        <v>59048</v>
       </c>
       <c r="M18" s="17">
-        <v>59048</v>
+        <v>56921</v>
       </c>
       <c r="N18" s="17">
-        <v>56921</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12803</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>25</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>27</v>
       </c>
@@ -1203,8 +1203,8 @@
       <c r="G21" s="15">
         <v>0</v>
       </c>
-      <c r="H21" s="15">
-        <v>0</v>
+      <c r="H21" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>18</v>
@@ -1225,7 +1225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
@@ -1262,44 +1262,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <v>567706</v>
+        <v>623065</v>
       </c>
       <c r="F23" s="15">
-        <v>623065</v>
+        <v>630377</v>
       </c>
       <c r="G23" s="15">
-        <v>630377</v>
+        <v>645174</v>
       </c>
       <c r="H23" s="15">
-        <v>645174</v>
+        <v>419688</v>
       </c>
       <c r="I23" s="15">
-        <v>419688</v>
+        <v>493427</v>
       </c>
       <c r="J23" s="15">
-        <v>493427</v>
+        <v>469721</v>
       </c>
       <c r="K23" s="15">
-        <v>469721</v>
+        <v>504524</v>
       </c>
       <c r="L23" s="15">
-        <v>504524</v>
+        <v>552144</v>
       </c>
       <c r="M23" s="15">
-        <v>552144</v>
+        <v>575425</v>
       </c>
       <c r="N23" s="15">
-        <v>575425</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>445012</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1314,7 +1314,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1329,7 +1329,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1344,7 +1344,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1396,7 +1396,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
@@ -1413,7 +1413,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
@@ -1421,8 +1421,8 @@
         <v>32</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>18</v>
+      <c r="E30" s="11">
+        <v>0</v>
       </c>
       <c r="F30" s="11">
         <v>0</v>
@@ -1436,8 +1436,8 @@
       <c r="I30" s="11">
         <v>0</v>
       </c>
-      <c r="J30" s="11">
-        <v>0</v>
+      <c r="J30" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>18</v>
@@ -1452,7 +1452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>19</v>
       </c>
@@ -1461,37 +1461,37 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>570009</v>
+        <v>687352</v>
       </c>
       <c r="F31" s="13">
-        <v>687352</v>
+        <v>708097</v>
       </c>
       <c r="G31" s="13">
-        <v>708097</v>
+        <v>890038</v>
       </c>
       <c r="H31" s="13">
-        <v>890038</v>
+        <v>1104535</v>
       </c>
       <c r="I31" s="13">
-        <v>1104535</v>
+        <v>998285</v>
       </c>
       <c r="J31" s="13">
-        <v>998285</v>
+        <v>1105845</v>
       </c>
       <c r="K31" s="13">
-        <v>1105845</v>
+        <v>1166556</v>
       </c>
       <c r="L31" s="13">
-        <v>1166556</v>
+        <v>1794839</v>
       </c>
       <c r="M31" s="13">
-        <v>1794839</v>
+        <v>1543689</v>
       </c>
       <c r="N31" s="13">
-        <v>1543689</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1357567</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>20</v>
       </c>
@@ -1500,74 +1500,74 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>713383</v>
+        <v>1004380</v>
       </c>
       <c r="F32" s="11">
-        <v>1004380</v>
+        <v>893535</v>
       </c>
       <c r="G32" s="11">
-        <v>893535</v>
+        <v>984374</v>
       </c>
       <c r="H32" s="11">
-        <v>984374</v>
+        <v>1046060</v>
       </c>
       <c r="I32" s="11">
-        <v>1046060</v>
+        <v>1341714</v>
       </c>
       <c r="J32" s="11">
-        <v>1341714</v>
+        <v>1378252</v>
       </c>
       <c r="K32" s="11">
-        <v>1378252</v>
+        <v>1550407</v>
       </c>
       <c r="L32" s="11">
-        <v>1550407</v>
+        <v>1905806</v>
       </c>
       <c r="M32" s="11">
-        <v>1905806</v>
+        <v>2104938</v>
       </c>
       <c r="N32" s="11">
-        <v>2104938</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1642087</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
-        <v>1283392</v>
+        <v>1691732</v>
       </c>
       <c r="F33" s="15">
-        <v>1691732</v>
+        <v>1601632</v>
       </c>
       <c r="G33" s="15">
-        <v>1601632</v>
+        <v>1874412</v>
       </c>
       <c r="H33" s="15">
-        <v>1874412</v>
+        <v>2150595</v>
       </c>
       <c r="I33" s="15">
-        <v>2150595</v>
+        <v>2339999</v>
       </c>
       <c r="J33" s="15">
-        <v>2339999</v>
+        <v>2484097</v>
       </c>
       <c r="K33" s="15">
-        <v>2484097</v>
+        <v>2716963</v>
       </c>
       <c r="L33" s="15">
-        <v>2716963</v>
+        <v>3700645</v>
       </c>
       <c r="M33" s="15">
-        <v>3700645</v>
+        <v>3648627</v>
       </c>
       <c r="N33" s="15">
-        <v>3648627</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2999654</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>16</v>
       </c>
@@ -1599,31 +1599,31 @@
         <v>0</v>
       </c>
       <c r="G35" s="11">
-        <v>0</v>
+        <v>28237</v>
       </c>
       <c r="H35" s="11">
-        <v>28237</v>
+        <v>11155</v>
       </c>
       <c r="I35" s="11">
-        <v>11155</v>
+        <v>0</v>
       </c>
       <c r="J35" s="11">
         <v>0</v>
       </c>
       <c r="K35" s="11">
-        <v>0</v>
+        <v>32576</v>
       </c>
       <c r="L35" s="11">
-        <v>32576</v>
+        <v>42722</v>
       </c>
       <c r="M35" s="11">
-        <v>42722</v>
+        <v>29978</v>
       </c>
       <c r="N35" s="11">
-        <v>29978</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23174</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>23</v>
       </c>
@@ -1632,74 +1632,74 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>50969</v>
+        <v>51966</v>
       </c>
       <c r="F36" s="13">
-        <v>51966</v>
+        <v>125403</v>
       </c>
       <c r="G36" s="13">
-        <v>125403</v>
+        <v>438125</v>
       </c>
       <c r="H36" s="13">
-        <v>438125</v>
+        <v>99611</v>
       </c>
       <c r="I36" s="13">
-        <v>99611</v>
+        <v>238920</v>
       </c>
       <c r="J36" s="13">
-        <v>238920</v>
+        <v>148598</v>
       </c>
       <c r="K36" s="13">
-        <v>148598</v>
+        <v>264296</v>
       </c>
       <c r="L36" s="13">
-        <v>264296</v>
+        <v>507140</v>
       </c>
       <c r="M36" s="13">
-        <v>507140</v>
+        <v>509973</v>
       </c>
       <c r="N36" s="13">
-        <v>509973</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>116980</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17">
-        <v>50969</v>
+        <v>51966</v>
       </c>
       <c r="F37" s="17">
-        <v>51966</v>
+        <v>125403</v>
       </c>
       <c r="G37" s="17">
-        <v>125403</v>
+        <v>466362</v>
       </c>
       <c r="H37" s="17">
-        <v>466362</v>
+        <v>110766</v>
       </c>
       <c r="I37" s="17">
-        <v>110766</v>
+        <v>238920</v>
       </c>
       <c r="J37" s="17">
-        <v>238920</v>
+        <v>148598</v>
       </c>
       <c r="K37" s="17">
-        <v>148598</v>
+        <v>296872</v>
       </c>
       <c r="L37" s="17">
-        <v>296872</v>
+        <v>549862</v>
       </c>
       <c r="M37" s="17">
-        <v>549862</v>
+        <v>539951</v>
       </c>
       <c r="N37" s="17">
-        <v>539951</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>140154</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
         <v>34</v>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>26</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>27</v>
       </c>
@@ -1770,8 +1770,8 @@
       <c r="G40" s="15">
         <v>0</v>
       </c>
-      <c r="H40" s="15">
-        <v>0</v>
+      <c r="H40" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I40" s="15" t="s">
         <v>18</v>
@@ -1792,7 +1792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>28</v>
       </c>
@@ -1801,16 +1801,16 @@
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17">
-        <v>-4676</v>
+        <v>-87158</v>
       </c>
       <c r="F41" s="17">
-        <v>-87158</v>
+        <v>0</v>
       </c>
       <c r="G41" s="17">
-        <v>0</v>
+        <v>-3552</v>
       </c>
       <c r="H41" s="17">
-        <v>-3552</v>
+        <v>0</v>
       </c>
       <c r="I41" s="17">
         <v>0</v>
@@ -1831,44 +1831,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
-        <v>1329685</v>
+        <v>1656540</v>
       </c>
       <c r="F42" s="15">
-        <v>1656540</v>
+        <v>1727035</v>
       </c>
       <c r="G42" s="15">
-        <v>1727035</v>
+        <v>2337222</v>
       </c>
       <c r="H42" s="15">
-        <v>2337222</v>
+        <v>2261361</v>
       </c>
       <c r="I42" s="15">
-        <v>2261361</v>
+        <v>2578919</v>
       </c>
       <c r="J42" s="15">
-        <v>2578919</v>
+        <v>2632695</v>
       </c>
       <c r="K42" s="15">
-        <v>2632695</v>
+        <v>3013835</v>
       </c>
       <c r="L42" s="15">
-        <v>3013835</v>
+        <v>4250507</v>
       </c>
       <c r="M42" s="15">
-        <v>4250507</v>
+        <v>4188578</v>
       </c>
       <c r="N42" s="15">
-        <v>4188578</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3139808</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1883,7 +1883,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1898,7 +1898,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1913,7 +1913,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>35</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1965,7 +1965,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>36</v>
       </c>
@@ -1982,7 +1982,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>16</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>19</v>
       </c>
@@ -2030,37 +2030,37 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>2119852</v>
+        <v>2374297</v>
       </c>
       <c r="F50" s="13">
-        <v>2374297</v>
+        <v>2212139</v>
       </c>
       <c r="G50" s="13">
-        <v>2212139</v>
+        <v>2821639</v>
       </c>
       <c r="H50" s="13">
-        <v>2821639</v>
+        <v>4948922</v>
       </c>
       <c r="I50" s="13">
-        <v>4948922</v>
+        <v>4371962</v>
       </c>
       <c r="J50" s="13">
-        <v>4371962</v>
+        <v>5063973</v>
       </c>
       <c r="K50" s="13">
-        <v>5063973</v>
+        <v>5129967</v>
       </c>
       <c r="L50" s="13">
-        <v>5129967</v>
+        <v>5921274</v>
       </c>
       <c r="M50" s="13">
-        <v>5921274</v>
+        <v>6858584</v>
       </c>
       <c r="N50" s="13">
-        <v>6858584</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6458117</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>20</v>
       </c>
@@ -2069,37 +2069,37 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>2494660</v>
+        <v>3087854</v>
       </c>
       <c r="F51" s="11">
-        <v>3087854</v>
+        <v>3104287</v>
       </c>
       <c r="G51" s="11">
-        <v>3104287</v>
+        <v>3979230</v>
       </c>
       <c r="H51" s="11">
-        <v>3979230</v>
+        <v>5746288</v>
       </c>
       <c r="I51" s="11">
-        <v>5746288</v>
+        <v>5685470</v>
       </c>
       <c r="J51" s="11">
-        <v>5685470</v>
+        <v>5931639</v>
       </c>
       <c r="K51" s="11">
-        <v>5931639</v>
+        <v>6138987</v>
       </c>
       <c r="L51" s="11">
-        <v>6138987</v>
+        <v>6656888</v>
       </c>
       <c r="M51" s="11">
-        <v>6656888</v>
+        <v>7173561</v>
       </c>
       <c r="N51" s="11">
-        <v>7173561</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7396852</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>38</v>
       </c>
@@ -2116,7 +2116,7 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>16</v>
       </c>
@@ -2130,32 +2130,32 @@
       <c r="F53" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="11" t="s">
-        <v>18</v>
+      <c r="G53" s="11">
+        <v>4153111</v>
       </c>
       <c r="H53" s="11">
-        <v>4153111</v>
-      </c>
-      <c r="I53" s="11">
         <v>5088960</v>
       </c>
+      <c r="I53" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="J53" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="11" t="s">
-        <v>18</v>
+      <c r="K53" s="11">
+        <v>8144000</v>
       </c>
       <c r="L53" s="11">
-        <v>8144000</v>
+        <v>7926105</v>
       </c>
       <c r="M53" s="11">
-        <v>7926105</v>
+        <v>7686667</v>
       </c>
       <c r="N53" s="11">
-        <v>7686667</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7724667</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>23</v>
       </c>
@@ -2164,37 +2164,37 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>3966150</v>
+        <v>6260964</v>
       </c>
       <c r="F54" s="13">
-        <v>6260964</v>
+        <v>5587871</v>
       </c>
       <c r="G54" s="13">
-        <v>5587871</v>
+        <v>5798065</v>
       </c>
       <c r="H54" s="13">
-        <v>5798065</v>
+        <v>8119579</v>
       </c>
       <c r="I54" s="13">
-        <v>8119579</v>
+        <v>8210591</v>
       </c>
       <c r="J54" s="13">
-        <v>8210591</v>
+        <v>7825066</v>
       </c>
       <c r="K54" s="13">
-        <v>7825066</v>
+        <v>8221705</v>
       </c>
       <c r="L54" s="13">
-        <v>8221705</v>
+        <v>8866259</v>
       </c>
       <c r="M54" s="13">
-        <v>8866259</v>
+        <v>9618321</v>
       </c>
       <c r="N54" s="13">
-        <v>9618321</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11932960</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2209,7 +2209,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2224,7 +2224,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2239,7 +2239,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>39</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2291,7 +2291,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>40</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>16</v>
       </c>
@@ -2316,8 +2316,8 @@
         <v>32</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>18</v>
+      <c r="E61" s="11">
+        <v>0</v>
       </c>
       <c r="F61" s="11">
         <v>0</v>
@@ -2331,8 +2331,8 @@
       <c r="I61" s="11">
         <v>0</v>
       </c>
-      <c r="J61" s="11">
-        <v>0</v>
+      <c r="J61" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K61" s="11" t="s">
         <v>18</v>
@@ -2347,7 +2347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>19</v>
       </c>
@@ -2356,37 +2356,37 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>-250111</v>
+        <v>-289647</v>
       </c>
       <c r="F62" s="13">
-        <v>-289647</v>
+        <v>-395997</v>
       </c>
       <c r="G62" s="13">
-        <v>-395997</v>
+        <v>-362760</v>
       </c>
       <c r="H62" s="13">
-        <v>-362760</v>
+        <v>-449150</v>
       </c>
       <c r="I62" s="13">
-        <v>-449150</v>
+        <v>-469132</v>
       </c>
       <c r="J62" s="13">
-        <v>-469132</v>
+        <v>-577640</v>
       </c>
       <c r="K62" s="13">
-        <v>-577640</v>
+        <v>-385762</v>
       </c>
       <c r="L62" s="13">
-        <v>-385762</v>
+        <v>-880935</v>
       </c>
       <c r="M62" s="13">
-        <v>-880935</v>
+        <v>-498214</v>
       </c>
       <c r="N62" s="13">
-        <v>-498214</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-677352</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>20</v>
       </c>
@@ -2395,74 +2395,74 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>-366163</v>
+        <v>-478085</v>
       </c>
       <c r="F63" s="11">
-        <v>-478085</v>
+        <v>-499701</v>
       </c>
       <c r="G63" s="11">
-        <v>-499701</v>
+        <v>-492848</v>
       </c>
       <c r="H63" s="11">
-        <v>-492848</v>
+        <v>-515631</v>
       </c>
       <c r="I63" s="11">
-        <v>-515631</v>
+        <v>-597873</v>
       </c>
       <c r="J63" s="11">
-        <v>-597873</v>
+        <v>-719932</v>
       </c>
       <c r="K63" s="11">
-        <v>-719932</v>
+        <v>-681678</v>
       </c>
       <c r="L63" s="11">
-        <v>-681678</v>
+        <v>-1055606</v>
       </c>
       <c r="M63" s="11">
-        <v>-1055606</v>
+        <v>-937630</v>
       </c>
       <c r="N63" s="11">
-        <v>-937630</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-907573</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
-        <v>-616274</v>
+        <v>-767732</v>
       </c>
       <c r="F64" s="15">
-        <v>-767732</v>
+        <v>-895698</v>
       </c>
       <c r="G64" s="15">
-        <v>-895698</v>
+        <v>-855608</v>
       </c>
       <c r="H64" s="15">
-        <v>-855608</v>
+        <v>-964781</v>
       </c>
       <c r="I64" s="15">
-        <v>-964781</v>
+        <v>-1067005</v>
       </c>
       <c r="J64" s="15">
-        <v>-1067005</v>
+        <v>-1297572</v>
       </c>
       <c r="K64" s="15">
-        <v>-1297572</v>
+        <v>-1067440</v>
       </c>
       <c r="L64" s="15">
-        <v>-1067440</v>
+        <v>-1936541</v>
       </c>
       <c r="M64" s="15">
-        <v>-1936541</v>
+        <v>-1435844</v>
       </c>
       <c r="N64" s="15">
-        <v>-1435844</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1584925</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>42</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>16</v>
       </c>
@@ -2494,31 +2494,31 @@
         <v>0</v>
       </c>
       <c r="G66" s="11">
-        <v>0</v>
+        <v>-7597</v>
       </c>
       <c r="H66" s="11">
-        <v>-7597</v>
+        <v>-4042</v>
       </c>
       <c r="I66" s="11">
-        <v>-4042</v>
+        <v>-555</v>
       </c>
       <c r="J66" s="11">
-        <v>-555</v>
+        <v>0</v>
       </c>
       <c r="K66" s="11">
-        <v>0</v>
+        <v>-7988</v>
       </c>
       <c r="L66" s="11">
-        <v>-7988</v>
+        <v>-11141</v>
       </c>
       <c r="M66" s="11">
-        <v>-11141</v>
+        <v>-11611</v>
       </c>
       <c r="N66" s="11">
-        <v>-11611</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-9082</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>23</v>
       </c>
@@ -2527,74 +2527,74 @@
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13">
-        <v>-29925</v>
+        <v>-14438</v>
       </c>
       <c r="F67" s="13">
-        <v>-14438</v>
+        <v>-70131</v>
       </c>
       <c r="G67" s="13">
-        <v>-70131</v>
+        <v>-204982</v>
       </c>
       <c r="H67" s="13">
-        <v>-204982</v>
+        <v>-81020</v>
       </c>
       <c r="I67" s="13">
-        <v>-81020</v>
+        <v>-82729</v>
       </c>
       <c r="J67" s="13">
-        <v>-82729</v>
+        <v>-77620</v>
       </c>
       <c r="K67" s="13">
-        <v>-77620</v>
+        <v>-120683</v>
       </c>
       <c r="L67" s="13">
-        <v>-120683</v>
+        <v>-243567</v>
       </c>
       <c r="M67" s="13">
-        <v>-243567</v>
+        <v>-202045</v>
       </c>
       <c r="N67" s="13">
-        <v>-202045</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-43046</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17">
-        <v>-29925</v>
+        <v>-14438</v>
       </c>
       <c r="F68" s="17">
-        <v>-14438</v>
+        <v>-70131</v>
       </c>
       <c r="G68" s="17">
-        <v>-70131</v>
+        <v>-212579</v>
       </c>
       <c r="H68" s="17">
-        <v>-212579</v>
+        <v>-85062</v>
       </c>
       <c r="I68" s="17">
-        <v>-85062</v>
+        <v>-83284</v>
       </c>
       <c r="J68" s="17">
-        <v>-83284</v>
+        <v>-77620</v>
       </c>
       <c r="K68" s="17">
-        <v>-77620</v>
+        <v>-128671</v>
       </c>
       <c r="L68" s="17">
-        <v>-128671</v>
+        <v>-254708</v>
       </c>
       <c r="M68" s="17">
-        <v>-254708</v>
+        <v>-213656</v>
       </c>
       <c r="N68" s="17">
-        <v>-213656</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-52128</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="18" t="s">
         <v>44</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="M69" s="19"/>
       <c r="N69" s="19"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="16" t="s">
         <v>45</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>27</v>
       </c>
@@ -2665,8 +2665,8 @@
       <c r="G71" s="15">
         <v>0</v>
       </c>
-      <c r="H71" s="15">
-        <v>0</v>
+      <c r="H71" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I71" s="15" t="s">
         <v>18</v>
@@ -2687,7 +2687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="16" t="s">
         <v>28</v>
       </c>
@@ -2726,44 +2726,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
-        <v>-646199</v>
+        <v>-782170</v>
       </c>
       <c r="F73" s="15">
-        <v>-782170</v>
+        <v>-965829</v>
       </c>
       <c r="G73" s="15">
-        <v>-965829</v>
+        <v>-1068187</v>
       </c>
       <c r="H73" s="15">
-        <v>-1068187</v>
+        <v>-1049843</v>
       </c>
       <c r="I73" s="15">
-        <v>-1049843</v>
+        <v>-1150289</v>
       </c>
       <c r="J73" s="15">
-        <v>-1150289</v>
+        <v>-1375192</v>
       </c>
       <c r="K73" s="15">
-        <v>-1375192</v>
+        <v>-1196111</v>
       </c>
       <c r="L73" s="15">
-        <v>-1196111</v>
+        <v>-2191249</v>
       </c>
       <c r="M73" s="15">
-        <v>-2191249</v>
+        <v>-1649500</v>
       </c>
       <c r="N73" s="15">
-        <v>-1649500</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1637053</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2778,7 +2778,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2793,7 +2793,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2808,7 +2808,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>46</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2860,7 +2860,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>47</v>
       </c>
@@ -2877,7 +2877,7 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>16</v>
       </c>
@@ -2885,8 +2885,8 @@
         <v>32</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>18</v>
+      <c r="E80" s="11">
+        <v>0</v>
       </c>
       <c r="F80" s="11">
         <v>0</v>
@@ -2900,8 +2900,8 @@
       <c r="I80" s="11">
         <v>0</v>
       </c>
-      <c r="J80" s="11">
-        <v>0</v>
+      <c r="J80" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K80" s="11" t="s">
         <v>18</v>
@@ -2916,7 +2916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>19</v>
       </c>
@@ -2925,37 +2925,37 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>319898</v>
+        <v>352632</v>
       </c>
       <c r="F81" s="13">
-        <v>352632</v>
+        <v>312100</v>
       </c>
       <c r="G81" s="13">
-        <v>312100</v>
+        <v>527278</v>
       </c>
       <c r="H81" s="13">
-        <v>527278</v>
+        <v>653343</v>
       </c>
       <c r="I81" s="13">
-        <v>653343</v>
+        <v>529153</v>
       </c>
       <c r="J81" s="13">
-        <v>529153</v>
+        <v>528205</v>
       </c>
       <c r="K81" s="13">
-        <v>528205</v>
+        <v>780794</v>
       </c>
       <c r="L81" s="13">
-        <v>780794</v>
+        <v>913904</v>
       </c>
       <c r="M81" s="13">
-        <v>913904</v>
+        <v>1045475</v>
       </c>
       <c r="N81" s="13">
-        <v>1045475</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>680215</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>20</v>
       </c>
@@ -2964,74 +2964,74 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>347220</v>
+        <v>490212</v>
       </c>
       <c r="F82" s="11">
-        <v>490212</v>
+        <v>393834</v>
       </c>
       <c r="G82" s="11">
-        <v>393834</v>
+        <v>491526</v>
       </c>
       <c r="H82" s="11">
-        <v>491526</v>
+        <v>528919</v>
       </c>
       <c r="I82" s="11">
-        <v>528919</v>
+        <v>743841</v>
       </c>
       <c r="J82" s="11">
-        <v>743841</v>
+        <v>658320</v>
       </c>
       <c r="K82" s="11">
-        <v>658320</v>
+        <v>868729</v>
       </c>
       <c r="L82" s="11">
-        <v>868729</v>
+        <v>850200</v>
       </c>
       <c r="M82" s="11">
-        <v>850200</v>
+        <v>1167308</v>
       </c>
       <c r="N82" s="11">
-        <v>1167308</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>734514</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
-        <v>667118</v>
+        <v>842844</v>
       </c>
       <c r="F83" s="15">
-        <v>842844</v>
+        <v>705934</v>
       </c>
       <c r="G83" s="15">
-        <v>705934</v>
+        <v>1018804</v>
       </c>
       <c r="H83" s="15">
-        <v>1018804</v>
+        <v>1182262</v>
       </c>
       <c r="I83" s="15">
-        <v>1182262</v>
+        <v>1272994</v>
       </c>
       <c r="J83" s="15">
-        <v>1272994</v>
+        <v>1186525</v>
       </c>
       <c r="K83" s="15">
-        <v>1186525</v>
+        <v>1649523</v>
       </c>
       <c r="L83" s="15">
-        <v>1649523</v>
+        <v>1764104</v>
       </c>
       <c r="M83" s="15">
-        <v>1764104</v>
+        <v>2212783</v>
       </c>
       <c r="N83" s="15">
-        <v>2212783</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1414729</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>49</v>
       </c>
@@ -3048,7 +3048,7 @@
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>16</v>
       </c>
@@ -3063,31 +3063,31 @@
         <v>0</v>
       </c>
       <c r="G85" s="11">
-        <v>0</v>
+        <v>20640</v>
       </c>
       <c r="H85" s="11">
-        <v>20640</v>
+        <v>7113</v>
       </c>
       <c r="I85" s="11">
-        <v>7113</v>
+        <v>-555</v>
       </c>
       <c r="J85" s="11">
-        <v>-555</v>
+        <v>0</v>
       </c>
       <c r="K85" s="11">
-        <v>0</v>
+        <v>24588</v>
       </c>
       <c r="L85" s="11">
-        <v>24588</v>
+        <v>31581</v>
       </c>
       <c r="M85" s="11">
-        <v>31581</v>
+        <v>18367</v>
       </c>
       <c r="N85" s="11">
-        <v>18367</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14092</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>23</v>
       </c>
@@ -3096,74 +3096,74 @@
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>21044</v>
+        <v>37528</v>
       </c>
       <c r="F86" s="13">
-        <v>37528</v>
+        <v>55272</v>
       </c>
       <c r="G86" s="13">
-        <v>55272</v>
+        <v>233143</v>
       </c>
       <c r="H86" s="13">
-        <v>233143</v>
+        <v>18591</v>
       </c>
       <c r="I86" s="13">
-        <v>18591</v>
+        <v>156191</v>
       </c>
       <c r="J86" s="13">
-        <v>156191</v>
+        <v>70978</v>
       </c>
       <c r="K86" s="13">
-        <v>70978</v>
+        <v>143613</v>
       </c>
       <c r="L86" s="13">
-        <v>143613</v>
+        <v>263573</v>
       </c>
       <c r="M86" s="13">
-        <v>263573</v>
+        <v>307928</v>
       </c>
       <c r="N86" s="13">
-        <v>307928</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>73934</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17">
-        <v>21044</v>
+        <v>37528</v>
       </c>
       <c r="F87" s="17">
-        <v>37528</v>
+        <v>55272</v>
       </c>
       <c r="G87" s="17">
-        <v>55272</v>
+        <v>253783</v>
       </c>
       <c r="H87" s="17">
-        <v>253783</v>
+        <v>25704</v>
       </c>
       <c r="I87" s="17">
-        <v>25704</v>
+        <v>155636</v>
       </c>
       <c r="J87" s="17">
-        <v>155636</v>
+        <v>70978</v>
       </c>
       <c r="K87" s="17">
-        <v>70978</v>
+        <v>168201</v>
       </c>
       <c r="L87" s="17">
-        <v>168201</v>
+        <v>295154</v>
       </c>
       <c r="M87" s="17">
-        <v>295154</v>
+        <v>326295</v>
       </c>
       <c r="N87" s="17">
-        <v>326295</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>88026</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="18" t="s">
         <v>51</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="M88" s="19"/>
       <c r="N88" s="19"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="16" t="s">
         <v>52</v>
       </c>
@@ -3217,41 +3217,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
-        <v>688162</v>
+        <v>880372</v>
       </c>
       <c r="F90" s="15">
-        <v>880372</v>
+        <v>761206</v>
       </c>
       <c r="G90" s="15">
-        <v>761206</v>
+        <v>1272587</v>
       </c>
       <c r="H90" s="15">
-        <v>1272587</v>
+        <v>1207966</v>
       </c>
       <c r="I90" s="15">
-        <v>1207966</v>
+        <v>1428630</v>
       </c>
       <c r="J90" s="15">
-        <v>1428630</v>
+        <v>1257503</v>
       </c>
       <c r="K90" s="15">
-        <v>1257503</v>
+        <v>1817724</v>
       </c>
       <c r="L90" s="15">
-        <v>1817724</v>
+        <v>2059258</v>
       </c>
       <c r="M90" s="15">
-        <v>2059258</v>
+        <v>2539078</v>
       </c>
       <c r="N90" s="15">
-        <v>2539078</v>
+        <v>1502755</v>
       </c>
     </row>
   </sheetData>
